--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cfh-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cfh-Sell.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4449</v>
+        <v>1.365747</v>
       </c>
       <c r="H2">
-        <v>0.8897999999999999</v>
+        <v>2.731494</v>
       </c>
       <c r="I2">
-        <v>0.005349488063170692</v>
+        <v>0.01468609951202811</v>
       </c>
       <c r="J2">
-        <v>0.003934578179391878</v>
+        <v>0.0101986501662014</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N2">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O2">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P2">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q2">
-        <v>0.02291880105</v>
+        <v>0.09442501608600001</v>
       </c>
       <c r="R2">
-        <v>0.09167520419999999</v>
+        <v>0.3777000643440001</v>
       </c>
       <c r="S2">
-        <v>7.869876260788771E-06</v>
+        <v>2.930164009718523E-06</v>
       </c>
       <c r="T2">
-        <v>3.860785056403236E-06</v>
+        <v>1.356643640444762E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4449</v>
+        <v>1.365747</v>
       </c>
       <c r="H3">
-        <v>0.8897999999999999</v>
+        <v>2.731494</v>
       </c>
       <c r="I3">
-        <v>0.005349488063170692</v>
+        <v>0.01468609951202811</v>
       </c>
       <c r="J3">
-        <v>0.003934578179391878</v>
+        <v>0.0101986501662014</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N3">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O3">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P3">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q3">
-        <v>7.533889588899998</v>
+        <v>104.578768685766</v>
       </c>
       <c r="R3">
-        <v>45.2033375334</v>
+        <v>627.472612114596</v>
       </c>
       <c r="S3">
-        <v>0.002586993041116685</v>
+        <v>0.003245251702203771</v>
       </c>
       <c r="T3">
-        <v>0.001903681279703135</v>
+        <v>0.002253790266774289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4449</v>
+        <v>1.365747</v>
       </c>
       <c r="H4">
-        <v>0.8897999999999999</v>
+        <v>2.731494</v>
       </c>
       <c r="I4">
-        <v>0.005349488063170692</v>
+        <v>0.01468609951202811</v>
       </c>
       <c r="J4">
-        <v>0.003934578179391878</v>
+        <v>0.0101986501662014</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N4">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O4">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P4">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q4">
-        <v>0.045169214</v>
+        <v>365.12363317189</v>
       </c>
       <c r="R4">
-        <v>0.271015284</v>
+        <v>2190.74179903134</v>
       </c>
       <c r="S4">
-        <v>1.551024088047084E-05</v>
+        <v>0.01133038863391378</v>
       </c>
       <c r="T4">
-        <v>1.141346526200679E-05</v>
+        <v>0.007868825584327962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4449</v>
+        <v>1.365747</v>
       </c>
       <c r="H5">
-        <v>0.8897999999999999</v>
+        <v>2.731494</v>
       </c>
       <c r="I5">
-        <v>0.005349488063170692</v>
+        <v>0.01468609951202811</v>
       </c>
       <c r="J5">
-        <v>0.003934578179391878</v>
+        <v>0.0101986501662014</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N5">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O5">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P5">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q5">
-        <v>7.976901729900001</v>
+        <v>3.465140055223</v>
       </c>
       <c r="R5">
-        <v>47.8614103794</v>
+        <v>20.790840331338</v>
       </c>
       <c r="S5">
-        <v>0.002739114904912747</v>
+        <v>0.0001075290119008399</v>
       </c>
       <c r="T5">
-        <v>0.002015622649370333</v>
+        <v>7.467767145870289E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>66.818806</v>
       </c>
       <c r="I6">
-        <v>0.2678102982635185</v>
+        <v>0.2395044944124353</v>
       </c>
       <c r="J6">
-        <v>0.2954639425271062</v>
+        <v>0.249483113240329</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N6">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O6">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P6">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q6">
-        <v>1.147379127229</v>
+        <v>1.539906203076</v>
       </c>
       <c r="R6">
-        <v>6.884274763373999</v>
+        <v>9.239437218456001</v>
       </c>
       <c r="S6">
-        <v>0.0003939879636724734</v>
+        <v>4.77858296628302E-05</v>
       </c>
       <c r="T6">
-        <v>0.0002899225080821611</v>
+        <v>3.318671328657956E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>66.818806</v>
       </c>
       <c r="I7">
-        <v>0.2678102982635185</v>
+        <v>0.2395044944124353</v>
       </c>
       <c r="J7">
-        <v>0.2954639425271062</v>
+        <v>0.249483113240329</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N7">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O7">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P7">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q7">
-        <v>377.1675334278331</v>
+        <v>1705.496078100623</v>
       </c>
       <c r="R7">
-        <v>3394.507800850497</v>
+        <v>15349.4647029056</v>
       </c>
       <c r="S7">
-        <v>0.1295120897113402</v>
+        <v>0.05292435663675229</v>
       </c>
       <c r="T7">
-        <v>0.1429553945991409</v>
+        <v>0.05513304243036209</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>66.818806</v>
       </c>
       <c r="I8">
-        <v>0.2678102982635185</v>
+        <v>0.2395044944124353</v>
       </c>
       <c r="J8">
-        <v>0.2954639425271062</v>
+        <v>0.249483113240329</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N8">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O8">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P8">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q8">
-        <v>2.261296881275555</v>
+        <v>5954.525303961296</v>
       </c>
       <c r="R8">
-        <v>20.35167193148</v>
+        <v>53590.72773565166</v>
       </c>
       <c r="S8">
-        <v>0.0007764859342215103</v>
+        <v>0.1847787425816763</v>
       </c>
       <c r="T8">
-        <v>0.0008570848742748608</v>
+        <v>0.1924900915641941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>66.818806</v>
       </c>
       <c r="I9">
-        <v>0.2678102982635185</v>
+        <v>0.2395044944124353</v>
       </c>
       <c r="J9">
-        <v>0.2954639425271062</v>
+        <v>0.249483113240329</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N9">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O9">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P9">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q9">
-        <v>399.3459572722354</v>
+        <v>56.51034955297356</v>
       </c>
       <c r="R9">
-        <v>3594.113615450118</v>
+        <v>508.5931459767619</v>
       </c>
       <c r="S9">
-        <v>0.1371277346542843</v>
+        <v>0.001753609364343935</v>
       </c>
       <c r="T9">
-        <v>0.1513615405456084</v>
+        <v>0.00182679253248618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.70812766666667</v>
+        <v>36.57125933333334</v>
       </c>
       <c r="H10">
-        <v>53.12438300000001</v>
+        <v>109.713778</v>
       </c>
       <c r="I10">
-        <v>0.2129229435242437</v>
+        <v>0.3932566967743808</v>
       </c>
       <c r="J10">
-        <v>0.2349090111771824</v>
+        <v>0.4096411854590505</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N10">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O10">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P10">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q10">
-        <v>0.9122253426845001</v>
+        <v>2.528463727788</v>
       </c>
       <c r="R10">
-        <v>5.473352056107001</v>
+        <v>15.170782366728</v>
       </c>
       <c r="S10">
-        <v>0.0003132406687950481</v>
+        <v>7.846240034839247E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002305032861508678</v>
+        <v>5.449124149380101E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.70812766666667</v>
+        <v>36.57125933333334</v>
       </c>
       <c r="H11">
-        <v>53.12438300000001</v>
+        <v>109.713778</v>
       </c>
       <c r="I11">
-        <v>0.2129229435242437</v>
+        <v>0.3932566967743808</v>
       </c>
       <c r="J11">
-        <v>0.2349090111771824</v>
+        <v>0.4096411854590505</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N11">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O11">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P11">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q11">
-        <v>299.8675627485099</v>
+        <v>2800.355607859895</v>
       </c>
       <c r="R11">
-        <v>2698.808064736589</v>
+        <v>25203.20047073906</v>
       </c>
       <c r="S11">
-        <v>0.1029687638679985</v>
+        <v>0.08689965389141296</v>
       </c>
       <c r="T11">
-        <v>0.1136568817856592</v>
+        <v>0.09052622666842217</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.70812766666667</v>
+        <v>36.57125933333334</v>
       </c>
       <c r="H12">
-        <v>53.12438300000001</v>
+        <v>109.713778</v>
       </c>
       <c r="I12">
-        <v>0.2129229435242437</v>
+        <v>0.3932566967743808</v>
       </c>
       <c r="J12">
-        <v>0.2349090111771824</v>
+        <v>0.4096411854590505</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N12">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O12">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P12">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q12">
-        <v>1.797847174904445</v>
+        <v>9777.089810527177</v>
       </c>
       <c r="R12">
-        <v>16.18062457414</v>
+        <v>87993.80829474458</v>
       </c>
       <c r="S12">
-        <v>0.0006173462028593616</v>
+        <v>0.3033992248039449</v>
       </c>
       <c r="T12">
-        <v>0.000681426500265278</v>
+        <v>0.3160609480671305</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.70812766666667</v>
+        <v>36.57125933333334</v>
       </c>
       <c r="H13">
-        <v>53.12438300000001</v>
+        <v>109.713778</v>
       </c>
       <c r="I13">
-        <v>0.2129229435242437</v>
+        <v>0.3932566967743808</v>
       </c>
       <c r="J13">
-        <v>0.2349090111771824</v>
+        <v>0.4096411854590505</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N13">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O13">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P13">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q13">
-        <v>317.5005489267778</v>
+        <v>92.78770927988957</v>
       </c>
       <c r="R13">
-        <v>2857.504940341</v>
+        <v>835.089383519006</v>
       </c>
       <c r="S13">
-        <v>0.1090235927845908</v>
+        <v>0.002879355678674529</v>
       </c>
       <c r="T13">
-        <v>0.1203401996051071</v>
+        <v>0.002999519482004012</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.906844</v>
+        <v>9.7929715</v>
       </c>
       <c r="H14">
-        <v>45.813688</v>
+        <v>19.585943</v>
       </c>
       <c r="I14">
-        <v>0.2754324309798004</v>
+        <v>0.105305414522203</v>
       </c>
       <c r="J14">
-        <v>0.2025820826278575</v>
+        <v>0.07312854461044438</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N14">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O14">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P14">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q14">
-        <v>1.180034615238</v>
+        <v>0.6770664635670001</v>
       </c>
       <c r="R14">
-        <v>4.720138460952</v>
+        <v>2.708265854268</v>
       </c>
       <c r="S14">
-        <v>0.0004052012312995993</v>
+        <v>2.101048923226573E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001987826500439653</v>
+        <v>9.727696642593252E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.906844</v>
+        <v>9.7929715</v>
       </c>
       <c r="H15">
-        <v>45.813688</v>
+        <v>19.585943</v>
       </c>
       <c r="I15">
-        <v>0.2754324309798004</v>
+        <v>0.105305414522203</v>
       </c>
       <c r="J15">
-        <v>0.2025820826278575</v>
+        <v>0.07312854461044438</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N15">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O15">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P15">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q15">
-        <v>387.9020758061506</v>
+        <v>749.8730740355271</v>
       </c>
       <c r="R15">
-        <v>2327.412454836904</v>
+        <v>4499.238444213162</v>
       </c>
       <c r="S15">
-        <v>0.1331981254707698</v>
+        <v>0.02326979845462448</v>
       </c>
       <c r="T15">
-        <v>0.09801602629777499</v>
+        <v>0.01616060943168684</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.906844</v>
+        <v>9.7929715</v>
       </c>
       <c r="H16">
-        <v>45.813688</v>
+        <v>19.585943</v>
       </c>
       <c r="I16">
-        <v>0.2754324309798004</v>
+        <v>0.105305414522203</v>
       </c>
       <c r="J16">
-        <v>0.2025820826278575</v>
+        <v>0.07312854461044438</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N16">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O16">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P16">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q16">
-        <v>2.325655515173333</v>
+        <v>2618.087635285872</v>
       </c>
       <c r="R16">
-        <v>13.95393309104</v>
+        <v>15708.52581171523</v>
       </c>
       <c r="S16">
-        <v>0.0007985854534757655</v>
+        <v>0.08124357803886195</v>
       </c>
       <c r="T16">
-        <v>0.0005876522100611571</v>
+        <v>0.05642273765623838</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>22.906844</v>
+        <v>9.7929715</v>
       </c>
       <c r="H17">
-        <v>45.813688</v>
+        <v>19.585943</v>
       </c>
       <c r="I17">
-        <v>0.2754324309798004</v>
+        <v>0.105305414522203</v>
       </c>
       <c r="J17">
-        <v>0.2025820826278575</v>
+        <v>0.07312854461044438</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N17">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O17">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P17">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q17">
-        <v>410.7117184314441</v>
+        <v>24.84648899416017</v>
       </c>
       <c r="R17">
-        <v>2464.270310588664</v>
+        <v>149.078933964961</v>
       </c>
       <c r="S17">
-        <v>0.1410305188242552</v>
+        <v>0.0007710275394843156</v>
       </c>
       <c r="T17">
-        <v>0.1037796214699774</v>
+        <v>0.0005354698258765648</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6509819999999999</v>
+        <v>6.177412</v>
       </c>
       <c r="H18">
-        <v>1.952946</v>
+        <v>18.532236</v>
       </c>
       <c r="I18">
-        <v>0.007827422877812955</v>
+        <v>0.06642671545959582</v>
       </c>
       <c r="J18">
-        <v>0.008635669495539056</v>
+        <v>0.06919429138833312</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.5</v>
       </c>
       <c r="M18">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N18">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O18">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P18">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q18">
-        <v>0.033535012239</v>
+        <v>0.4270939108560001</v>
       </c>
       <c r="R18">
-        <v>0.201210073434</v>
+        <v>2.562563465136</v>
       </c>
       <c r="S18">
-        <v>1.151527936165609E-05</v>
+        <v>1.325342857469452E-05</v>
       </c>
       <c r="T18">
-        <v>8.473707274401523E-06</v>
+        <v>9.204354874153664E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6509819999999999</v>
+        <v>6.177412</v>
       </c>
       <c r="H19">
-        <v>1.952946</v>
+        <v>18.532236</v>
       </c>
       <c r="I19">
-        <v>0.007827422877812955</v>
+        <v>0.06642671545959582</v>
       </c>
       <c r="J19">
-        <v>0.008635669495539056</v>
+        <v>0.06919429138833312</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N19">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O19">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P19">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q19">
-        <v>11.023660400902</v>
+        <v>473.0203622081361</v>
       </c>
       <c r="R19">
-        <v>99.21294360811798</v>
+        <v>4257.183259873224</v>
       </c>
       <c r="S19">
-        <v>0.003785313337586474</v>
+        <v>0.01467860211899715</v>
       </c>
       <c r="T19">
-        <v>0.004178227399945066</v>
+        <v>0.01529118245120219</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6509819999999999</v>
+        <v>6.177412</v>
       </c>
       <c r="H20">
-        <v>1.952946</v>
+        <v>18.532236</v>
       </c>
       <c r="I20">
-        <v>0.007827422877812955</v>
+        <v>0.06642671545959582</v>
       </c>
       <c r="J20">
-        <v>0.008635669495539056</v>
+        <v>0.06919429138833312</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N20">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O20">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P20">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q20">
-        <v>0.06609203252</v>
+        <v>1651.491171527107</v>
       </c>
       <c r="R20">
-        <v>0.59482829268</v>
+        <v>14863.42054374396</v>
       </c>
       <c r="S20">
-        <v>2.269473506147598E-05</v>
+        <v>0.05124849530096175</v>
       </c>
       <c r="T20">
-        <v>2.505043979498216E-05</v>
+        <v>0.05338724257552963</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6509819999999999</v>
+        <v>6.177412</v>
       </c>
       <c r="H21">
-        <v>1.952946</v>
+        <v>18.532236</v>
       </c>
       <c r="I21">
-        <v>0.007827422877812955</v>
+        <v>0.06642671545959582</v>
       </c>
       <c r="J21">
-        <v>0.008635669495539056</v>
+        <v>0.06919429138833312</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N21">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O21">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P21">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q21">
-        <v>11.671880067282</v>
+        <v>15.67317940937467</v>
       </c>
       <c r="R21">
-        <v>105.046920605538</v>
+        <v>141.058614684372</v>
       </c>
       <c r="S21">
-        <v>0.004007899525803349</v>
+        <v>0.000486364611062218</v>
       </c>
       <c r="T21">
-        <v>0.004423917948524607</v>
+        <v>0.0005066620067271414</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.18304766666666</v>
+        <v>16.815572</v>
       </c>
       <c r="H22">
-        <v>57.54914299999999</v>
+        <v>50.446716</v>
       </c>
       <c r="I22">
-        <v>0.2306574162914536</v>
+        <v>0.1808205793193568</v>
       </c>
       <c r="J22">
-        <v>0.254474715992923</v>
+        <v>0.1883542151356418</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.5</v>
       </c>
       <c r="M22">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N22">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O22">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P22">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q22">
-        <v>0.9882051090244998</v>
+        <v>1.162595016936</v>
       </c>
       <c r="R22">
-        <v>5.929230654146999</v>
+        <v>6.975570101615999</v>
       </c>
       <c r="S22">
-        <v>0.0003393306618149683</v>
+        <v>3.607724115610763E-05</v>
       </c>
       <c r="T22">
-        <v>0.0002497020356295942</v>
+        <v>2.505523220725473E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.18304766666666</v>
+        <v>16.815572</v>
       </c>
       <c r="H23">
-        <v>57.54914299999999</v>
+        <v>50.446716</v>
       </c>
       <c r="I23">
-        <v>0.2306574162914536</v>
+        <v>0.1808205793193568</v>
       </c>
       <c r="J23">
-        <v>0.254474715992923</v>
+        <v>0.1883542151356418</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N23">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O23">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P23">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q23">
-        <v>324.8437021786298</v>
+        <v>1287.611698584616</v>
       </c>
       <c r="R23">
-        <v>2923.593319607668</v>
+        <v>11588.50528726154</v>
       </c>
       <c r="S23">
-        <v>0.1115450906295265</v>
+        <v>0.03995671501129425</v>
       </c>
       <c r="T23">
-        <v>0.1231234279524149</v>
+        <v>0.04162422378065879</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.18304766666666</v>
+        <v>16.815572</v>
       </c>
       <c r="H24">
-        <v>57.54914299999999</v>
+        <v>50.446716</v>
       </c>
       <c r="I24">
-        <v>0.2306574162914536</v>
+        <v>0.1808205793193568</v>
       </c>
       <c r="J24">
-        <v>0.254474715992923</v>
+        <v>0.1883542151356418</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N24">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O24">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P24">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q24">
-        <v>1.947590886104444</v>
+        <v>4495.534489552973</v>
       </c>
       <c r="R24">
-        <v>17.52831797494</v>
+        <v>40459.81040597676</v>
       </c>
       <c r="S24">
-        <v>0.000668765318344693</v>
+        <v>0.1395038509047128</v>
       </c>
       <c r="T24">
-        <v>0.0007381829000772775</v>
+        <v>0.1453257482923729</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.18304766666666</v>
+        <v>16.815572</v>
       </c>
       <c r="H25">
-        <v>57.54914299999999</v>
+        <v>50.446716</v>
       </c>
       <c r="I25">
-        <v>0.2306574162914536</v>
+        <v>0.1808205793193568</v>
       </c>
       <c r="J25">
-        <v>0.254474715992923</v>
+        <v>0.1883542151356418</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N25">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O25">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P25">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q25">
-        <v>343.9453497796977</v>
+        <v>42.66406009948133</v>
       </c>
       <c r="R25">
-        <v>3095.508148017279</v>
+        <v>383.9765408953319</v>
       </c>
       <c r="S25">
-        <v>0.1181042296817675</v>
+        <v>0.001323936162193605</v>
       </c>
       <c r="T25">
-        <v>0.1303634031048013</v>
+        <v>0.001379187830402882</v>
       </c>
     </row>
   </sheetData>
